--- a/data/friedman_data.xlsx
+++ b/data/friedman_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD66CA-48AD-D64A-B700-96408C03C81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D50776-FD37-1B4E-B62C-57B20A78AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="2460" windowWidth="28240" windowHeight="17240" xr2:uid="{54B5FF37-1B0A-FB44-8FDF-C6976A68E6EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>flea_id</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>ketchup</t>
+  </si>
+  <si>
+    <t>rep</t>
   </si>
 </sst>
 </file>
@@ -435,235 +438,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED8CE7A-5B25-494D-8BB3-DF705385FFEB}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>5.3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6.3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>5.6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>5.8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7.1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>7.3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8.1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>7.6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>7.1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8.1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>4.3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>9.1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>4.5</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>9.5</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>4.7</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>6.1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7.1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>6.4</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7.2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>6.5</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7.3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3.5</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8.6</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3.8</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8.5</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.9</v>
       </c>
     </row>
@@ -677,7 +728,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/friedman_data.xlsx
+++ b/data/friedman_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D50776-FD37-1B4E-B62C-57B20A78AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C88FC6-349C-455B-89F9-8FF034701E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="2460" windowWidth="28240" windowHeight="17240" xr2:uid="{54B5FF37-1B0A-FB44-8FDF-C6976A68E6EB}"/>
+    <workbookView xWindow="21408" yWindow="2820" windowWidth="17160" windowHeight="12684" xr2:uid="{54B5FF37-1B0A-FB44-8FDF-C6976A68E6EB}"/>
   </bookViews>
   <sheets>
     <sheet name="block" sheetId="2" r:id="rId1"/>
@@ -441,12 +441,12 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -471,16 +471,16 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>6.3</v>
+      </c>
+      <c r="D2">
         <v>5.3</v>
-      </c>
-      <c r="D2">
-        <v>6.3</v>
       </c>
       <c r="E2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>7.8</v>
+      </c>
+      <c r="D3">
         <v>5.6</v>
-      </c>
-      <c r="D3">
-        <v>7.8</v>
       </c>
       <c r="E3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -505,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>7.1</v>
+      </c>
+      <c r="D4">
         <v>5.8</v>
-      </c>
-      <c r="D4">
-        <v>7.1</v>
       </c>
       <c r="E4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -531,7 +531,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -565,7 +565,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -573,16 +573,16 @@
         <v>3</v>
       </c>
       <c r="C8">
+        <v>9.1</v>
+      </c>
+      <c r="D8">
         <v>4.3</v>
-      </c>
-      <c r="D8">
-        <v>9.1</v>
       </c>
       <c r="E8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -590,16 +590,16 @@
         <v>3</v>
       </c>
       <c r="C9">
+        <v>9.5</v>
+      </c>
+      <c r="D9">
         <v>4.5</v>
-      </c>
-      <c r="D9">
-        <v>9.5</v>
       </c>
       <c r="E9">
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -607,16 +607,16 @@
         <v>3</v>
       </c>
       <c r="C10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D10">
         <v>4.7</v>
-      </c>
-      <c r="D10">
-        <v>9.6999999999999993</v>
       </c>
       <c r="E10">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -627,13 +627,13 @@
         <v>6.1</v>
       </c>
       <c r="D11">
+        <v>5.2</v>
+      </c>
+      <c r="E11">
         <v>7.1</v>
       </c>
-      <c r="E11">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -644,13 +644,13 @@
         <v>6.4</v>
       </c>
       <c r="D12">
+        <v>5.3</v>
+      </c>
+      <c r="E12">
         <v>7.2</v>
       </c>
-      <c r="E12">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -661,13 +661,13 @@
         <v>6.5</v>
       </c>
       <c r="D13">
+        <v>5.8</v>
+      </c>
+      <c r="E13">
         <v>7.3</v>
       </c>
-      <c r="E13">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -675,16 +675,16 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D14">
         <v>8.1999999999999993</v>
       </c>
       <c r="E14">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -692,16 +692,16 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D15">
         <v>8.6</v>
       </c>
       <c r="E15">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -709,13 +709,13 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D16">
         <v>8.5</v>
       </c>
       <c r="E16">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -731,9 +731,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -767,7 +767,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -801,7 +801,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -818,7 +818,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
